--- a/Data/g18.6.xlsx
+++ b/Data/g18.6.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -460,8 +456,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>39083</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/01/2007</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>3.69</v>
@@ -473,8 +471,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>39083</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/01/2007</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>3.8</v>
@@ -486,8 +486,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>39083</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/01/2007</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>4.56</v>
@@ -499,8 +501,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>39448</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/01/2008</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>2.41</v>
@@ -512,8 +516,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>39448</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/01/2008</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>2.23</v>
@@ -525,8 +531,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>39448</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/01/2008</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>3.35</v>
@@ -538,8 +546,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>39814</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01/01/2009</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>2.61</v>
@@ -551,8 +561,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>39814</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/01/2009</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>2.9</v>
@@ -564,8 +576,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>39814</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/01/2009</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>3.48</v>
@@ -577,8 +591,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>40179</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/01/2010</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>2.65</v>
@@ -590,8 +606,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>40179</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/01/2010</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>3.17</v>
@@ -603,8 +621,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>40179</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/01/2010</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>3.62</v>
@@ -616,8 +636,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>40544</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/01/2011</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>2.88</v>
@@ -629,8 +651,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>40544</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/01/2011</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>3.53</v>
@@ -642,8 +666,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>40544</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/01/2011</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>3.72</v>
@@ -655,8 +681,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>40909</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>3.08</v>
@@ -668,8 +696,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>40909</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>3.35</v>
@@ -681,8 +711,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>40909</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>3.82</v>
@@ -694,8 +726,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>41275</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>3.24</v>
@@ -707,8 +741,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>41275</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>3.68</v>
@@ -720,8 +756,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>41275</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>3.93</v>
@@ -733,8 +771,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>41640</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>3.32</v>
@@ -746,8 +786,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>41640</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>3.47</v>
@@ -759,8 +801,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>41640</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>3.97</v>
@@ -772,8 +816,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>42005</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>3.61</v>
@@ -785,8 +831,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>42005</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>4.54</v>
@@ -798,8 +846,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>42005</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>4.19</v>
@@ -811,8 +861,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>42370</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>3.83</v>
@@ -824,8 +876,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>42370</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>5.02</v>
@@ -837,8 +891,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>42370</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>4.37</v>
@@ -850,8 +906,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>42736</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>3.75</v>
@@ -863,8 +921,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>42736</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="C33" t="n">
         <v>4.93</v>
@@ -876,8 +936,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>42736</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="C34" t="n">
         <v>4.28</v>
@@ -889,8 +951,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>43101</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="C35" t="n">
         <v>3.64</v>
@@ -902,8 +966,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>43101</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>5</v>
@@ -915,8 +981,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>43101</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="C37" t="n">
         <v>4.26</v>
@@ -928,8 +996,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>43466</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="C38" t="n">
         <v>3.76</v>
@@ -941,8 +1011,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>43466</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="C39" t="n">
         <v>5.16</v>
@@ -954,8 +1026,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>43466</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="C40" t="n">
         <v>4.31</v>
@@ -967,8 +1041,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>43831</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="C41" t="n">
         <v>5.11</v>
@@ -980,8 +1056,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>43831</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="C42" t="n">
         <v>6.48</v>
@@ -993,8 +1071,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>43831</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="C43" t="n">
         <v>5.76</v>
@@ -1006,8 +1086,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>44197</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="C44" t="n">
         <v>5.46</v>
@@ -1019,8 +1101,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>44197</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="C45" t="n">
         <v>6.71</v>
@@ -1032,8 +1116,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>44197</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="C46" t="n">
         <v>6.62</v>
@@ -1045,8 +1131,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>44562</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="C47" t="n">
         <v>4.26</v>
@@ -1058,8 +1146,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>44562</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="C48" t="n">
         <v>5.26</v>
@@ -1071,8 +1161,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>44562</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="C49" t="n">
         <v>4.85</v>
@@ -1084,8 +1176,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>44927</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
       </c>
       <c r="C50" t="n">
         <v>3.85</v>
@@ -1097,8 +1191,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>44927</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
       </c>
       <c r="C51" t="n">
         <v>4.22</v>
@@ -1110,8 +1206,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>44927</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
       </c>
       <c r="C52" t="n">
         <v>4.35</v>

--- a/Data/g18.6.xlsx
+++ b/Data/g18.6.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.69</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.8</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.56</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="8">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="52">

--- a/Data/g18.6.xlsx
+++ b/Data/g18.6.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.8</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.09</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.62</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.39</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="8">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.28</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.6.xlsx
+++ b/Data/g18.6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,22 +462,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.15</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11.23</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4">
@@ -488,41 +488,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.3</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.53</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.35</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="7">
@@ -533,41 +533,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.48</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.61</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.9</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="10">
@@ -578,41 +578,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.48</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.65</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.17</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="13">
@@ -623,41 +623,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.62</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.88</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.53</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="16">
@@ -668,41 +668,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.72</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.08</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.35</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.82</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="20">
@@ -728,41 +728,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.24</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.68</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.93</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="23">
@@ -773,41 +773,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.32</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.47</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.97</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="26">
@@ -818,32 +818,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.61</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.54</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.19</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="29">
@@ -873,31 +873,31 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.02</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.37</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="32">
@@ -908,41 +908,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.93</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.28</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="35">
@@ -953,56 +953,56 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.64</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.26</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="39">
@@ -1013,41 +1013,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.16</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.31</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.11</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="42">
@@ -1058,41 +1058,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6.48</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.76</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5.46</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="45">
@@ -1103,41 +1103,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6.71</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6.62</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4.26</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="48">
@@ -1148,41 +1148,41 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.26</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.85</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="51">
@@ -1193,26 +1193,71 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.35</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>4.37</v>
+      <c r="C54" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>3.54</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.6.xlsx
+++ b/Data/g18.6.xlsx
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.18</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="20">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="38">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3.54</v>
+        <v>4.29</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.6.xlsx
+++ b/Data/g18.6.xlsx
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="20">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="38">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4.29</v>
+        <v>4.32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.6.xlsx
+++ b/Data/g18.6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.36</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.69</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.41</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.61</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +803,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +818,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.24</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="27">
@@ -833,11 +833,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="28">
@@ -848,11 +848,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.61</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="29">
@@ -863,11 +863,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.83</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.75</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.64</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="32">
@@ -908,11 +908,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.76</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="33">
@@ -923,11 +923,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.11</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="34">
@@ -938,11 +938,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.46</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="35">
@@ -953,11 +953,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.26</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="36">
@@ -968,11 +968,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.94</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="37">
@@ -983,41 +983,41 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.8</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Região Nordeste</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.23</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="40">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="41">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.17</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="42">
@@ -1058,11 +1058,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.53</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="43">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="44">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.68</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="45">
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.47</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="46">
@@ -1118,11 +1118,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.54</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="47">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5.02</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="48">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.93</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="49">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="50">
@@ -1178,11 +1178,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="51">
@@ -1193,11 +1193,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6.48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6.71</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="53">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5.26</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="54">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4.72</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="55">
@@ -1253,11 +1253,56 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>4.32</v>
+      <c r="C57" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3.72</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.6.xlsx
+++ b/Data/g18.6.xlsx
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="21">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="40">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3.72</v>
+        <v>4.13</v>
       </c>
     </row>
   </sheetData>
